--- a/Report 8 (project week 4 )/report8_NguyenChiThanh_50802752_TTCNPM.xlsx
+++ b/Report 8 (project week 4 )/report8_NguyenChiThanh_50802752_TTCNPM.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Project</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>test.py</t>
+  </si>
+  <si>
+    <t>đã hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +3127,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3440,9 +3443,15 @@
       <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
